--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_7_22.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_7_22.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1089700.473126054</v>
+        <v>1066429.693593855</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>7226289.925414165</v>
+        <v>6950106.28241449</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>3187716.885615898</v>
+        <v>1096505.173366159</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>10392167.78907094</v>
+        <v>11360431.13596325</v>
       </c>
     </row>
     <row r="11">
@@ -658,16 +658,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>67.34019441676959</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>257.0285774905528</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -676,7 +676,7 @@
         <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>151.9313162448613</v>
@@ -706,22 +706,22 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I3" t="n">
-        <v>61.42221998250796</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -819,25 +819,25 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>59.66385641544559</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>62.33263748886721</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -864,7 +864,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -901,10 +901,10 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -913,10 +913,10 @@
         <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>308.6731632464905</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,25 +946,25 @@
         <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>99.69856304335914</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1056,22 +1056,22 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>51.87721125827414</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>30.60408762095435</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1098,10 +1098,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1135,25 +1135,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>194.3465367364499</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>1.332975795529236</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1180,25 +1180,25 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1232,7 +1232,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1290,31 +1290,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>25.31590541686235</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>9.275596830496628</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1335,16 +1335,16 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1369,16 +1369,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>330.7594927837707</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>62.92930610001619</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
@@ -1390,7 +1390,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,19 +1420,19 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
@@ -1527,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>74.7576914549238</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,22 +1575,22 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>203.1977700471494</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -1609,13 +1609,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
@@ -1624,10 +1624,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H14" t="n">
-        <v>294.6077643873205</v>
+        <v>287.2608194047874</v>
       </c>
       <c r="I14" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1675,7 +1675,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>78.96122915361056</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -1764,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -1773,19 +1773,19 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>52.23490948285971</v>
+        <v>56.00855464855934</v>
       </c>
       <c r="H16" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>189.7690253314419</v>
@@ -1864,7 +1864,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I17" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>109.1877617881758</v>
+        <v>109.1877617881769</v>
       </c>
       <c r="T17" t="n">
         <v>203.9179701396201</v>
@@ -1940,10 +1940,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H18" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I18" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1970,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S18" t="n">
         <v>128.1435076414547</v>
@@ -2001,28 +2001,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>132.7035720837712</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I19" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,16 +2049,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>189.7690253314419</v>
+        <v>113.7626965853551</v>
       </c>
       <c r="T19" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -2070,7 +2070,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2092,7 +2092,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417118</v>
       </c>
       <c r="G20" t="n">
         <v>410.9217256534534</v>
@@ -2101,7 +2101,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I20" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2134,10 +2134,10 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T20" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9951719589016</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2177,10 +2177,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H21" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I21" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2207,7 +2207,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S21" t="n">
         <v>128.1435076414547</v>
@@ -2250,16 +2250,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,16 +2286,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>94.08507244101649</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -2304,7 +2304,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>142.3844270995948</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2417,7 +2417,7 @@
         <v>89.59687541851116</v>
       </c>
       <c r="I24" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247654</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2475,7 +2475,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -2484,13 +2484,13 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>93.34984542791987</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2526,7 +2526,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>6.380068175847255</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>219.5489492761692</v>
@@ -2544,7 +2544,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2569,13 +2569,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>410.921725653453</v>
+        <v>410.9217256534538</v>
       </c>
       <c r="H26" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I26" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2608,7 +2608,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T26" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U26" t="n">
         <v>250.995171958902</v>
@@ -2651,10 +2651,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H27" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I27" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2681,7 +2681,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S27" t="n">
         <v>128.1435076414547</v>
@@ -2712,28 +2712,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>52.23490948285903</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H28" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I28" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,28 +2760,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>47.41254713315928</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>109.187761788176</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T29" t="n">
         <v>203.9179701396202</v>
@@ -2964,10 +2964,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>71.67037196991659</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3003,7 +3003,7 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>145.5000104076906</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -3018,7 +3018,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3189,25 +3189,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>166.0258082590282</v>
+        <v>98.17502158542619</v>
       </c>
       <c r="H34" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3240,22 +3240,22 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>203.1977700471487</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3426,25 +3426,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>166.0258082590282</v>
+        <v>89.56154462029197</v>
       </c>
       <c r="H37" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,28 +3471,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>19.89928445781414</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3660,25 +3660,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>74.75769145492316</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>92.30328311430409</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3708,16 +3708,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3726,7 +3726,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -3760,7 +3760,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I41" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3793,7 +3793,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T41" t="n">
-        <v>203.9179701396202</v>
+        <v>203.917970139621</v>
       </c>
       <c r="U41" t="n">
         <v>250.995171958902</v>
@@ -3836,10 +3836,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H42" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I42" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3866,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S42" t="n">
         <v>128.1435076414547</v>
@@ -3897,7 +3897,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
@@ -3915,7 +3915,7 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H43" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -3957,16 +3957,16 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>91.94841013667225</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>149.151559046289</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -3997,7 +3997,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I44" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4030,7 +4030,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T44" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U44" t="n">
         <v>250.995171958902</v>
@@ -4073,7 +4073,7 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H45" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I45" t="n">
         <v>18.81721868247745</v>
@@ -4103,7 +4103,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S45" t="n">
         <v>128.1435076414547</v>
@@ -4137,19 +4137,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>30.82797978766591</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4185,10 +4185,10 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>7.601081015447153</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T46" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>286.2118382056129</v>
@@ -4197,7 +4197,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -4306,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1623.178216428726</v>
+        <v>1104.379069117473</v>
       </c>
       <c r="C2" t="n">
-        <v>1623.178216428726</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="D2" t="n">
-        <v>1623.178216428726</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="E2" t="n">
-        <v>1363.553390680693</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="F2" t="n">
-        <v>952.5674858910851</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G2" t="n">
-        <v>534.603677789272</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H2" t="n">
         <v>207.4089578252748</v>
@@ -4333,10 +4333,10 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4354,28 +4354,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U2" t="n">
-        <v>2697.149091018222</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="V2" t="n">
-        <v>2366.086203674652</v>
+        <v>1881.118241157406</v>
       </c>
       <c r="W2" t="n">
-        <v>2013.317548404538</v>
+        <v>1881.118241157406</v>
       </c>
       <c r="X2" t="n">
-        <v>2013.317548404538</v>
+        <v>1881.118241157406</v>
       </c>
       <c r="Y2" t="n">
-        <v>1623.178216428726</v>
+        <v>1490.978909181595</v>
       </c>
     </row>
     <row r="3">
@@ -4391,49 +4391,49 @@
         <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747047</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692492</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F3" t="n">
         <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
-        <v>266.2060027641987</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598706</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417901</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073963</v>
@@ -4464,25 +4464,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>579.9823256406185</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="C4" t="n">
-        <v>579.9823256406185</v>
+        <v>667.8624625746712</v>
       </c>
       <c r="D4" t="n">
-        <v>579.9823256406185</v>
+        <v>517.7458231623355</v>
       </c>
       <c r="E4" t="n">
-        <v>579.9823256406185</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="F4" t="n">
-        <v>517.0200655508536</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G4" t="n">
-        <v>348.0202652891861</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
         <v>53.94298182036445</v>
@@ -4512,28 +4512,28 @@
         <v>728.1289842064344</v>
       </c>
       <c r="R4" t="n">
-        <v>579.9823256406185</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S4" t="n">
-        <v>579.9823256406185</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T4" t="n">
-        <v>579.9823256406185</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U4" t="n">
-        <v>579.9823256406185</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V4" t="n">
-        <v>579.9823256406185</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W4" t="n">
-        <v>579.9823256406185</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X4" t="n">
-        <v>579.9823256406185</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y4" t="n">
-        <v>579.9823256406185</v>
+        <v>728.1289842064344</v>
       </c>
     </row>
     <row r="5">
@@ -4543,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1194.683768698139</v>
+        <v>1780.41262192169</v>
       </c>
       <c r="C5" t="n">
-        <v>1194.683768698139</v>
+        <v>1780.41262192169</v>
       </c>
       <c r="D5" t="n">
-        <v>1194.683768698139</v>
+        <v>1422.14692331494</v>
       </c>
       <c r="E5" t="n">
-        <v>1194.683768698139</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="F5" t="n">
-        <v>783.6978639085316</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G5" t="n">
-        <v>365.7340558067185</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
@@ -4594,25 +4594,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2642.120401548716</v>
+        <v>2365.237294627169</v>
       </c>
       <c r="U5" t="n">
-        <v>2642.120401548716</v>
+        <v>2111.475509265261</v>
       </c>
       <c r="V5" t="n">
-        <v>2311.057514205145</v>
+        <v>1780.41262192169</v>
       </c>
       <c r="W5" t="n">
-        <v>1958.288858935031</v>
+        <v>1780.41262192169</v>
       </c>
       <c r="X5" t="n">
-        <v>1584.823100673951</v>
+        <v>1780.41262192169</v>
       </c>
       <c r="Y5" t="n">
-        <v>1194.683768698139</v>
+        <v>1780.41262192169</v>
       </c>
     </row>
     <row r="6">
@@ -4622,73 +4622,73 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170825</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359555</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692486</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N6" t="n">
-        <v>1866.936832414847</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O6" t="n">
-        <v>2307.072755435191</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P6" t="n">
-        <v>2643.31756905002</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W6" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X6" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y6" t="n">
         <v>1156.713312237151</v>
@@ -4701,22 +4701,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>579.9823256406185</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="C7" t="n">
-        <v>579.9823256406185</v>
+        <v>529.7758821321495</v>
       </c>
       <c r="D7" t="n">
-        <v>579.9823256406185</v>
+        <v>379.6592427198137</v>
       </c>
       <c r="E7" t="n">
-        <v>527.5811021474123</v>
+        <v>231.7461491374206</v>
       </c>
       <c r="F7" t="n">
-        <v>380.6911546495019</v>
+        <v>84.85620163951026</v>
       </c>
       <c r="G7" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
         <v>53.94298182036445</v>
@@ -4746,31 +4746,31 @@
         <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R7" t="n">
-        <v>579.9823256406185</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="S7" t="n">
-        <v>579.9823256406185</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="T7" t="n">
-        <v>579.9823256406185</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="U7" t="n">
-        <v>579.9823256406185</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="V7" t="n">
-        <v>579.9823256406185</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="W7" t="n">
-        <v>579.9823256406185</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="X7" t="n">
-        <v>579.9823256406185</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="Y7" t="n">
-        <v>579.9823256406185</v>
+        <v>698.7120650600564</v>
       </c>
     </row>
     <row r="8">
@@ -4780,43 +4780,43 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>730.9133108563931</v>
+        <v>1920.409918978289</v>
       </c>
       <c r="C8" t="n">
-        <v>730.9133108563931</v>
+        <v>1551.447402037877</v>
       </c>
       <c r="D8" t="n">
-        <v>730.9133108563931</v>
+        <v>1193.181703431127</v>
       </c>
       <c r="E8" t="n">
-        <v>730.9133108563931</v>
+        <v>807.3934508328825</v>
       </c>
       <c r="F8" t="n">
-        <v>730.9133108563931</v>
+        <v>396.407546043275</v>
       </c>
       <c r="G8" t="n">
-        <v>534.603677789272</v>
+        <v>382.4841419818659</v>
       </c>
       <c r="H8" t="n">
-        <v>207.4089578252748</v>
+        <v>55.28942201786873</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733124</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4828,28 +4828,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T8" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U8" t="n">
-        <v>2212.181128500977</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V8" t="n">
-        <v>1881.118241157406</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W8" t="n">
-        <v>1881.118241157406</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="X8" t="n">
-        <v>1507.652482896327</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="Y8" t="n">
-        <v>1117.513150920515</v>
+        <v>2307.009759042411</v>
       </c>
     </row>
     <row r="9">
@@ -4886,22 +4886,22 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>266.2060027641994</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>670.8219208598713</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P9" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>108.9687959810045</v>
+        <v>546.4805193761945</v>
       </c>
       <c r="C10" t="n">
-        <v>108.9687959810045</v>
+        <v>377.5443364482876</v>
       </c>
       <c r="D10" t="n">
-        <v>108.9687959810045</v>
+        <v>227.4276970359519</v>
       </c>
       <c r="E10" t="n">
-        <v>108.9687959810045</v>
+        <v>79.51460345355875</v>
       </c>
       <c r="F10" t="n">
-        <v>108.9687959810045</v>
+        <v>79.51460345355875</v>
       </c>
       <c r="G10" t="n">
-        <v>108.9687959810045</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
-        <v>108.9687959810045</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
         <v>53.94298182036445</v>
@@ -4983,31 +4983,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S10" t="n">
-        <v>336.2769833124028</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T10" t="n">
-        <v>108.9687959810045</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U10" t="n">
-        <v>108.9687959810045</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V10" t="n">
-        <v>108.9687959810045</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W10" t="n">
-        <v>108.9687959810045</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X10" t="n">
-        <v>108.9687959810045</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y10" t="n">
-        <v>108.9687959810045</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2268.308520734407</v>
+        <v>1664.678443125552</v>
       </c>
       <c r="C11" t="n">
-        <v>1934.208022973022</v>
+        <v>1295.71592618514</v>
       </c>
       <c r="D11" t="n">
-        <v>1575.942324366272</v>
+        <v>1295.71592618514</v>
       </c>
       <c r="E11" t="n">
-        <v>1190.154071768027</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F11" t="n">
-        <v>779.1681669784198</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G11" t="n">
-        <v>364.0957168234162</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H11" t="n">
-        <v>66.51211643218343</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I11" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J11" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K11" t="n">
-        <v>589.2106210810564</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L11" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M11" t="n">
         <v>1573.776739001389</v>
       </c>
       <c r="N11" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O11" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P11" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q11" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R11" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S11" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T11" t="n">
-        <v>3325.605821609171</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U11" t="n">
-        <v>3325.605821609171</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V11" t="n">
-        <v>2994.542934265601</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W11" t="n">
-        <v>2641.774278995486</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="X11" t="n">
-        <v>2268.308520734407</v>
+        <v>2051.278283189674</v>
       </c>
       <c r="Y11" t="n">
-        <v>2268.308520734407</v>
+        <v>2051.278283189674</v>
       </c>
     </row>
     <row r="12">
@@ -5096,25 +5096,25 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>941.5438544811086</v>
+        <v>941.5438544811095</v>
       </c>
       <c r="C12" t="n">
-        <v>767.0908251999816</v>
+        <v>767.0908251999825</v>
       </c>
       <c r="D12" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387314</v>
       </c>
       <c r="E12" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332758</v>
       </c>
       <c r="F12" t="n">
-        <v>312.38440256016</v>
+        <v>312.3844025601609</v>
       </c>
       <c r="G12" t="n">
-        <v>176.0213023927786</v>
+        <v>176.0213023927789</v>
       </c>
       <c r="H12" t="n">
-        <v>85.51940803064629</v>
+        <v>85.51940803064583</v>
       </c>
       <c r="I12" t="n">
         <v>66.51211643218342</v>
@@ -5123,13 +5123,13 @@
         <v>160.189385922801</v>
       </c>
       <c r="K12" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031484</v>
       </c>
       <c r="L12" t="n">
-        <v>765.1517452158134</v>
+        <v>765.1517452158141</v>
       </c>
       <c r="M12" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N12" t="n">
         <v>1685.951113992584</v>
@@ -5141,31 +5141,31 @@
         <v>2407.411984886742</v>
       </c>
       <c r="Q12" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R12" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125858</v>
       </c>
       <c r="S12" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619338</v>
       </c>
       <c r="T12" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U12" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431609</v>
       </c>
       <c r="V12" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W12" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X12" t="n">
         <v>1317.519490266131</v>
       </c>
       <c r="Y12" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501178</v>
       </c>
     </row>
     <row r="13">
@@ -5175,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1091.613680441807</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="C13" t="n">
-        <v>922.6774975139006</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="D13" t="n">
-        <v>772.5608581015648</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="E13" t="n">
-        <v>624.6477645191717</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F13" t="n">
-        <v>477.7578170212613</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G13" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H13" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I13" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J13" t="n">
         <v>111.634748879119</v>
@@ -5223,28 +5223,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R13" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S13" t="n">
-        <v>1927.294548088493</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T13" t="n">
-        <v>1927.294548088493</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U13" t="n">
-        <v>1927.294548088493</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V13" t="n">
-        <v>1927.294548088493</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="W13" t="n">
-        <v>1722.044275313594</v>
+        <v>590.8070661251691</v>
       </c>
       <c r="X13" t="n">
-        <v>1494.054724415577</v>
+        <v>362.8175152271517</v>
       </c>
       <c r="Y13" t="n">
-        <v>1273.262145272047</v>
+        <v>142.0249360836216</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1232.150970528558</v>
+        <v>2323.789769640641</v>
       </c>
       <c r="C14" t="n">
-        <v>1232.150970528558</v>
+        <v>1954.827252700229</v>
       </c>
       <c r="D14" t="n">
-        <v>1232.150970528558</v>
+        <v>1596.561554093479</v>
       </c>
       <c r="E14" t="n">
-        <v>1232.150970528558</v>
+        <v>1210.773301495234</v>
       </c>
       <c r="F14" t="n">
-        <v>821.1650657389509</v>
+        <v>799.7873967056269</v>
       </c>
       <c r="G14" t="n">
-        <v>406.0926155839475</v>
+        <v>384.7149465506233</v>
       </c>
       <c r="H14" t="n">
-        <v>108.5090151927147</v>
+        <v>94.55250270740372</v>
       </c>
       <c r="I14" t="n">
-        <v>66.51211643218342</v>
+        <v>94.55250270740372</v>
       </c>
       <c r="J14" t="n">
-        <v>255.3912473912088</v>
+        <v>450.8372826867822</v>
       </c>
       <c r="K14" t="n">
-        <v>589.2106210810553</v>
+        <v>1105.560614822082</v>
       </c>
       <c r="L14" t="n">
-        <v>1040.244834329464</v>
+        <v>1556.594828070491</v>
       </c>
       <c r="M14" t="n">
-        <v>1573.776739001388</v>
+        <v>2090.126732742415</v>
       </c>
       <c r="N14" t="n">
-        <v>2120.555556060171</v>
+        <v>2636.905549801198</v>
       </c>
       <c r="O14" t="n">
-        <v>2623.528026939508</v>
+        <v>3431.715523183197</v>
       </c>
       <c r="P14" t="n">
-        <v>3018.302393296686</v>
+        <v>4145.070610630142</v>
       </c>
       <c r="Q14" t="n">
-        <v>3266.588755052368</v>
+        <v>4603.54881313913</v>
       </c>
       <c r="R14" t="n">
-        <v>3325.605821609171</v>
+        <v>4727.625135370185</v>
       </c>
       <c r="S14" t="n">
-        <v>3215.315153136266</v>
+        <v>4617.33446689728</v>
       </c>
       <c r="T14" t="n">
-        <v>3009.337405520488</v>
+        <v>4411.356719281503</v>
       </c>
       <c r="U14" t="n">
-        <v>2755.806928794324</v>
+        <v>4157.826242555339</v>
       </c>
       <c r="V14" t="n">
-        <v>2424.744041450754</v>
+        <v>3826.763355211769</v>
       </c>
       <c r="W14" t="n">
-        <v>2071.975386180639</v>
+        <v>3473.994699941654</v>
       </c>
       <c r="X14" t="n">
-        <v>1698.50962791956</v>
+        <v>3100.528941680574</v>
       </c>
       <c r="Y14" t="n">
-        <v>1618.75081059268</v>
+        <v>2710.389609704763</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>941.5438544811082</v>
+        <v>969.5842407563282</v>
       </c>
       <c r="C15" t="n">
-        <v>767.0908251999812</v>
+        <v>795.1312114752012</v>
       </c>
       <c r="D15" t="n">
-        <v>618.15641553873</v>
+        <v>646.1968018139501</v>
       </c>
       <c r="E15" t="n">
-        <v>458.9189605332745</v>
+        <v>486.9593468084945</v>
       </c>
       <c r="F15" t="n">
-        <v>312.3844025601595</v>
+        <v>340.4247888353796</v>
       </c>
       <c r="G15" t="n">
-        <v>176.021302392778</v>
+        <v>204.0616886679982</v>
       </c>
       <c r="H15" t="n">
-        <v>85.51940803064547</v>
+        <v>113.5597943058658</v>
       </c>
       <c r="I15" t="n">
-        <v>66.51211643218342</v>
+        <v>94.5525027074037</v>
       </c>
       <c r="J15" t="n">
-        <v>160.1893859228007</v>
+        <v>188.229772198021</v>
       </c>
       <c r="K15" t="n">
-        <v>398.4535849031479</v>
+        <v>426.4939711783682</v>
       </c>
       <c r="L15" t="n">
-        <v>765.151745215813</v>
+        <v>793.1921314910336</v>
       </c>
       <c r="M15" t="n">
-        <v>1212.428070438129</v>
+        <v>1240.468456713349</v>
       </c>
       <c r="N15" t="n">
-        <v>1685.951113992583</v>
+        <v>1713.991500267804</v>
       </c>
       <c r="O15" t="n">
-        <v>2096.912393410638</v>
+        <v>2124.952779685859</v>
       </c>
       <c r="P15" t="n">
-        <v>2407.411984886741</v>
+        <v>2435.452371161961</v>
       </c>
       <c r="Q15" t="n">
-        <v>2565.053542533341</v>
+        <v>2593.093928808561</v>
       </c>
       <c r="R15" t="n">
-        <v>2564.909189125856</v>
+        <v>2592.949575401076</v>
       </c>
       <c r="S15" t="n">
-        <v>2435.471302619336</v>
+        <v>2463.511688894556</v>
       </c>
       <c r="T15" t="n">
-        <v>2242.828302297192</v>
+        <v>2270.868688572412</v>
       </c>
       <c r="U15" t="n">
-        <v>2014.760455431607</v>
+        <v>2042.800841706827</v>
       </c>
       <c r="V15" t="n">
-        <v>1779.608347199865</v>
+        <v>1807.648733475085</v>
       </c>
       <c r="W15" t="n">
-        <v>1525.370990471663</v>
+        <v>1553.411376746883</v>
       </c>
       <c r="X15" t="n">
-        <v>1317.51949026613</v>
+        <v>1345.55987654135</v>
       </c>
       <c r="Y15" t="n">
-        <v>1109.759191501176</v>
+        <v>1137.799577776396</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>362.8175152271517</v>
+        <v>299.0398939146042</v>
       </c>
       <c r="C16" t="n">
-        <v>362.8175152271517</v>
+        <v>299.0398939146042</v>
       </c>
       <c r="D16" t="n">
-        <v>362.8175152271517</v>
+        <v>299.0398939146042</v>
       </c>
       <c r="E16" t="n">
-        <v>362.8175152271517</v>
+        <v>151.1268003322111</v>
       </c>
       <c r="F16" t="n">
-        <v>362.8175152271517</v>
+        <v>151.1268003322111</v>
       </c>
       <c r="G16" t="n">
-        <v>310.0549803959803</v>
+        <v>94.55250270740372</v>
       </c>
       <c r="H16" t="n">
-        <v>163.8377936138381</v>
+        <v>94.55250270740372</v>
       </c>
       <c r="I16" t="n">
-        <v>66.51211643218342</v>
+        <v>94.55250270740372</v>
       </c>
       <c r="J16" t="n">
-        <v>111.634748879119</v>
+        <v>139.6751351543393</v>
       </c>
       <c r="K16" t="n">
-        <v>315.6219318279954</v>
+        <v>343.6623181032156</v>
       </c>
       <c r="L16" t="n">
-        <v>632.1817302764914</v>
+        <v>660.2221165517117</v>
       </c>
       <c r="M16" t="n">
-        <v>976.3387758760405</v>
+        <v>1004.379162151261</v>
       </c>
       <c r="N16" t="n">
-        <v>1317.747152581905</v>
+        <v>1345.787538857125</v>
       </c>
       <c r="O16" t="n">
-        <v>1617.076751502319</v>
+        <v>1645.117137777539</v>
       </c>
       <c r="P16" t="n">
-        <v>1849.684251935978</v>
+        <v>1877.724638211198</v>
       </c>
       <c r="Q16" t="n">
-        <v>1927.294548088493</v>
+        <v>1955.334934363713</v>
       </c>
       <c r="R16" t="n">
-        <v>1837.464090846021</v>
+        <v>1955.334934363713</v>
       </c>
       <c r="S16" t="n">
-        <v>1645.778206672847</v>
+        <v>1763.649050190539</v>
       </c>
       <c r="T16" t="n">
-        <v>1424.011591242373</v>
+        <v>1541.882434760065</v>
       </c>
       <c r="U16" t="n">
-        <v>1134.908724368016</v>
+        <v>1252.779567885709</v>
       </c>
       <c r="V16" t="n">
-        <v>880.2242361621296</v>
+        <v>998.0950796798219</v>
       </c>
       <c r="W16" t="n">
-        <v>590.8070661251691</v>
+        <v>708.6779096428613</v>
       </c>
       <c r="X16" t="n">
-        <v>362.8175152271517</v>
+        <v>480.688358744844</v>
       </c>
       <c r="Y16" t="n">
-        <v>362.8175152271517</v>
+        <v>480.688358744844</v>
       </c>
     </row>
     <row r="17">
@@ -5512,34 +5512,34 @@
         <v>137.5579332089257</v>
       </c>
       <c r="I17" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J17" t="n">
-        <v>451.8458144277728</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K17" t="n">
-        <v>1106.569146563072</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L17" t="n">
         <v>1557.603359811481</v>
       </c>
       <c r="M17" t="n">
-        <v>2091.135264483405</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N17" t="n">
-        <v>2637.914081542187</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O17" t="n">
-        <v>3482.142110232731</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P17" t="n">
-        <v>4195.497197679677</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q17" t="n">
-        <v>4653.975400188665</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R17" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S17" t="n">
         <v>4667.761053946815</v>
@@ -5585,37 +5585,37 @@
         <v>341.4333205763709</v>
       </c>
       <c r="G18" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H18" t="n">
         <v>114.5683260468565</v>
       </c>
       <c r="I18" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J18" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K18" t="n">
-        <v>427.5025029193588</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L18" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M18" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N18" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O18" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P18" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q18" t="n">
-        <v>2594.102460549551</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R18" t="n">
         <v>2593.958107142068</v>
@@ -5649,34 +5649,34 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>935.6537883236053</v>
+        <v>410.7144041584436</v>
       </c>
       <c r="C19" t="n">
-        <v>935.6537883236053</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="D19" t="n">
-        <v>801.6097761177758</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="E19" t="n">
-        <v>653.6966825353827</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="F19" t="n">
-        <v>506.8067350374723</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="G19" t="n">
-        <v>339.1038984121913</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="H19" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I19" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J19" t="n">
-        <v>140.6836668953299</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K19" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L19" t="n">
         <v>661.2306482927024</v>
@@ -5688,37 +5688,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O19" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P19" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q19" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R19" t="n">
-        <v>1866.513008862231</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S19" t="n">
-        <v>1674.827124689057</v>
+        <v>1841.431651372022</v>
       </c>
       <c r="T19" t="n">
-        <v>1453.060509258583</v>
+        <v>1619.665035941548</v>
       </c>
       <c r="U19" t="n">
-        <v>1453.060509258583</v>
+        <v>1330.562169067191</v>
       </c>
       <c r="V19" t="n">
-        <v>1453.060509258583</v>
+        <v>1330.562169067191</v>
       </c>
       <c r="W19" t="n">
-        <v>1163.643339221623</v>
+        <v>1041.144999030231</v>
       </c>
       <c r="X19" t="n">
-        <v>935.6537883236053</v>
+        <v>813.1554481322135</v>
       </c>
       <c r="Y19" t="n">
-        <v>935.6537883236053</v>
+        <v>592.3628689886833</v>
       </c>
     </row>
     <row r="20">
@@ -5731,13 +5731,13 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C20" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D20" t="n">
         <v>1646.988141143014</v>
       </c>
       <c r="E20" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F20" t="n">
         <v>850.213983755162</v>
@@ -5749,49 +5749,49 @@
         <v>137.5579332089257</v>
       </c>
       <c r="I20" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J20" t="n">
-        <v>451.8458144277728</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K20" t="n">
-        <v>1106.569146563072</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L20" t="n">
         <v>1557.603359811481</v>
       </c>
       <c r="M20" t="n">
-        <v>2091.135264483405</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N20" t="n">
-        <v>2637.914081542187</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O20" t="n">
-        <v>3482.142110232731</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P20" t="n">
-        <v>4195.497197679677</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q20" t="n">
-        <v>4653.975400188665</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R20" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S20" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T20" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U20" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V20" t="n">
         <v>3877.189942261304</v>
       </c>
       <c r="W20" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X20" t="n">
         <v>3150.95552873011</v>
@@ -5822,37 +5822,37 @@
         <v>341.4333205763709</v>
       </c>
       <c r="G21" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H21" t="n">
         <v>114.5683260468565</v>
       </c>
       <c r="I21" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J21" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K21" t="n">
-        <v>427.5025029193588</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L21" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M21" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N21" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O21" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P21" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q21" t="n">
-        <v>2594.102460549551</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R21" t="n">
         <v>2593.958107142068</v>
@@ -5886,34 +5886,34 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1120.662598458018</v>
+        <v>562.5269503710301</v>
       </c>
       <c r="C22" t="n">
-        <v>951.7264155301116</v>
+        <v>393.5907674431232</v>
       </c>
       <c r="D22" t="n">
-        <v>801.6097761177758</v>
+        <v>243.4741280307875</v>
       </c>
       <c r="E22" t="n">
-        <v>653.6966825353827</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F22" t="n">
-        <v>506.8067350374723</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G22" t="n">
-        <v>339.1038984121913</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H22" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I22" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J22" t="n">
-        <v>140.6836668953299</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K22" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L22" t="n">
         <v>661.2306482927024</v>
@@ -5925,37 +5925,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O22" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P22" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q22" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R22" t="n">
-        <v>1956.343466104703</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S22" t="n">
-        <v>1956.343466104703</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="T22" t="n">
-        <v>1956.343466104703</v>
+        <v>1771.477582154134</v>
       </c>
       <c r="U22" t="n">
-        <v>1956.343466104703</v>
+        <v>1482.374715279778</v>
       </c>
       <c r="V22" t="n">
-        <v>1956.343466104703</v>
+        <v>1482.374715279778</v>
       </c>
       <c r="W22" t="n">
-        <v>1666.926296067742</v>
+        <v>1192.957545242817</v>
       </c>
       <c r="X22" t="n">
-        <v>1523.103642431788</v>
+        <v>964.9679943448</v>
       </c>
       <c r="Y22" t="n">
-        <v>1302.311063288258</v>
+        <v>744.1754152012699</v>
       </c>
     </row>
     <row r="23">
@@ -5965,34 +5965,34 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C23" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D23" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E23" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F23" t="n">
-        <v>850.2139837551621</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G23" t="n">
-        <v>435.1415336001586</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H23" t="n">
-        <v>137.5579332089258</v>
+        <v>137.5579332089264</v>
       </c>
       <c r="I23" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J23" t="n">
         <v>284.4401654074198</v>
       </c>
       <c r="K23" t="n">
-        <v>618.2595390972662</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L23" t="n">
         <v>1482.778354750621</v>
@@ -6004,37 +6004,37 @@
         <v>3441.080929807095</v>
       </c>
       <c r="O23" t="n">
-        <v>4010.914672075805</v>
+        <v>4075.973927750059</v>
       </c>
       <c r="P23" t="n">
-        <v>4405.689038432983</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q23" t="n">
-        <v>4653.975400188665</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R23" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S23" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T23" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U23" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V23" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W23" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X23" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y23" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="24">
@@ -6044,28 +6044,28 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973187</v>
       </c>
       <c r="C24" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161917</v>
       </c>
       <c r="D24" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549405</v>
       </c>
       <c r="E24" t="n">
-        <v>487.9678785494859</v>
+        <v>487.967878549485</v>
       </c>
       <c r="F24" t="n">
-        <v>341.4333205763709</v>
+        <v>341.43332057637</v>
       </c>
       <c r="G24" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089881</v>
       </c>
       <c r="H24" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468556</v>
       </c>
       <c r="I24" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J24" t="n">
         <v>189.2383039390117</v>
@@ -6074,46 +6074,46 @@
         <v>427.5025029193588</v>
       </c>
       <c r="L24" t="n">
-        <v>794.2006632320247</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M24" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N24" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O24" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P24" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q24" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549551</v>
       </c>
       <c r="R24" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S24" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T24" t="n">
-        <v>2271.877220313403</v>
+        <v>2271.877220313402</v>
       </c>
       <c r="U24" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V24" t="n">
-        <v>1808.657265216076</v>
+        <v>1808.657265216075</v>
       </c>
       <c r="W24" t="n">
-        <v>1554.419908487874</v>
+        <v>1554.419908487873</v>
       </c>
       <c r="X24" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y24" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="25">
@@ -6123,31 +6123,31 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>264.4972173763013</v>
+        <v>673.3827746590077</v>
       </c>
       <c r="C25" t="n">
-        <v>95.56103444839441</v>
+        <v>504.4465917311009</v>
       </c>
       <c r="D25" t="n">
-        <v>95.56103444839441</v>
+        <v>504.4465917311009</v>
       </c>
       <c r="E25" t="n">
-        <v>95.56103444839441</v>
+        <v>410.1538185715858</v>
       </c>
       <c r="F25" t="n">
-        <v>95.56103444839441</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="G25" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H25" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I25" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J25" t="n">
-        <v>140.6836668953299</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K25" t="n">
         <v>344.6708498442063</v>
@@ -6174,25 +6174,25 @@
         <v>1956.343466104703</v>
       </c>
       <c r="S25" t="n">
-        <v>1949.898952795766</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="T25" t="n">
-        <v>1728.132337365293</v>
+        <v>1734.576850674229</v>
       </c>
       <c r="U25" t="n">
-        <v>1439.029470490936</v>
+        <v>1445.473983799873</v>
       </c>
       <c r="V25" t="n">
-        <v>1184.344982285049</v>
+        <v>1190.789495593986</v>
       </c>
       <c r="W25" t="n">
-        <v>894.9278122480885</v>
+        <v>901.3723255570251</v>
       </c>
       <c r="X25" t="n">
-        <v>666.9382613500711</v>
+        <v>673.3827746590077</v>
       </c>
       <c r="Y25" t="n">
-        <v>446.145682206541</v>
+        <v>673.3827746590077</v>
       </c>
     </row>
     <row r="26">
@@ -6202,19 +6202,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C26" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D26" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E26" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F26" t="n">
-        <v>850.2139837551615</v>
+        <v>850.2139837551624</v>
       </c>
       <c r="G26" t="n">
         <v>435.1415336001585</v>
@@ -6223,55 +6223,55 @@
         <v>137.5579332089257</v>
       </c>
       <c r="I26" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J26" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K26" t="n">
-        <v>618.2595390972662</v>
+        <v>1002.806306216376</v>
       </c>
       <c r="L26" t="n">
-        <v>1482.778354750621</v>
+        <v>1453.840519464784</v>
       </c>
       <c r="M26" t="n">
-        <v>2461.328657580449</v>
+        <v>2432.390822294613</v>
       </c>
       <c r="N26" t="n">
-        <v>3441.080929807095</v>
+        <v>2979.169639353395</v>
       </c>
       <c r="O26" t="n">
-        <v>4075.973927750058</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P26" t="n">
-        <v>4470.748294107236</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q26" t="n">
-        <v>4719.034655862918</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R26" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S26" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T26" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U26" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V26" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W26" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X26" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y26" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="27">
@@ -6281,34 +6281,34 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C27" t="n">
-        <v>796.1397432161928</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D27" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E27" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F27" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G27" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089888</v>
       </c>
       <c r="H27" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468563</v>
       </c>
       <c r="I27" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J27" t="n">
         <v>189.2383039390117</v>
       </c>
       <c r="K27" t="n">
-        <v>427.5025029193588</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L27" t="n">
         <v>794.200663232024</v>
@@ -6317,28 +6317,28 @@
         <v>1241.47698845434</v>
       </c>
       <c r="N27" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O27" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P27" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q27" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R27" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S27" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T27" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U27" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V27" t="n">
         <v>1808.657265216076</v>
@@ -6347,10 +6347,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X27" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y27" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="28">
@@ -6360,34 +6360,34 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>391.8664332433621</v>
+        <v>1023.336921276364</v>
       </c>
       <c r="C28" t="n">
-        <v>391.8664332433621</v>
+        <v>854.4007383484569</v>
       </c>
       <c r="D28" t="n">
-        <v>391.8664332433621</v>
+        <v>704.2840989361212</v>
       </c>
       <c r="E28" t="n">
-        <v>391.8664332433621</v>
+        <v>556.371005353728</v>
       </c>
       <c r="F28" t="n">
-        <v>391.8664332433621</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="G28" t="n">
-        <v>339.1038984121913</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="H28" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I28" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J28" t="n">
-        <v>140.6836668953299</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K28" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L28" t="n">
         <v>661.2306482927024</v>
@@ -6399,37 +6399,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O28" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P28" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q28" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R28" t="n">
-        <v>1866.513008862231</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S28" t="n">
-        <v>1674.827124689057</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="T28" t="n">
-        <v>1453.060509258583</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="U28" t="n">
-        <v>1163.957642384227</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="V28" t="n">
-        <v>909.27315417834</v>
+        <v>1701.658977898817</v>
       </c>
       <c r="W28" t="n">
-        <v>619.8559841413794</v>
+        <v>1653.767516148151</v>
       </c>
       <c r="X28" t="n">
-        <v>391.8664332433621</v>
+        <v>1425.777965250134</v>
       </c>
       <c r="Y28" t="n">
-        <v>391.8664332433621</v>
+        <v>1204.985386106604</v>
       </c>
     </row>
     <row r="29">
@@ -6439,7 +6439,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C29" t="n">
         <v>2005.253839749764</v>
@@ -6448,67 +6448,67 @@
         <v>1646.988141143014</v>
       </c>
       <c r="E29" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F29" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551618</v>
       </c>
       <c r="G29" t="n">
         <v>435.1415336001585</v>
       </c>
       <c r="H29" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089256</v>
       </c>
       <c r="I29" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J29" t="n">
-        <v>451.8458144277728</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K29" t="n">
-        <v>1106.569146563072</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L29" t="n">
-        <v>1557.603359811481</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M29" t="n">
-        <v>2091.135264483405</v>
+        <v>2461.328657580449</v>
       </c>
       <c r="N29" t="n">
-        <v>2667.23671557753</v>
+        <v>3441.080929807095</v>
       </c>
       <c r="O29" t="n">
-        <v>3547.201365906984</v>
+        <v>4075.973927750059</v>
       </c>
       <c r="P29" t="n">
-        <v>4260.55645335393</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q29" t="n">
-        <v>4719.034655862918</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R29" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S29" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T29" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U29" t="n">
         <v>4208.252829604874</v>
       </c>
       <c r="V29" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W29" t="n">
         <v>3524.421286991189</v>
       </c>
       <c r="X29" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y29" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="30">
@@ -6539,7 +6539,7 @@
         <v>114.5683260468565</v>
       </c>
       <c r="I30" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J30" t="n">
         <v>189.2383039390117</v>
@@ -6557,10 +6557,10 @@
         <v>1715.000032008794</v>
       </c>
       <c r="O30" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P30" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q30" t="n">
         <v>2594.102460549552</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3603.519469305086</v>
+        <v>855.6340846510827</v>
       </c>
       <c r="C31" t="n">
-        <v>3434.583286377179</v>
+        <v>686.6979017231758</v>
       </c>
       <c r="D31" t="n">
-        <v>3284.466646964843</v>
+        <v>536.5812623108401</v>
       </c>
       <c r="E31" t="n">
-        <v>3136.55355338245</v>
+        <v>388.668168728447</v>
       </c>
       <c r="F31" t="n">
-        <v>2989.66360588454</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="G31" t="n">
-        <v>2917.269290763412</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="H31" t="n">
-        <v>2917.269290763412</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I31" t="n">
-        <v>2917.269290763412</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J31" t="n">
-        <v>2962.391923210347</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K31" t="n">
-        <v>3166.379106159223</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L31" t="n">
-        <v>3482.938904607719</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M31" t="n">
-        <v>3827.095950207268</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N31" t="n">
-        <v>4168.504326913133</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O31" t="n">
-        <v>4467.833925833546</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P31" t="n">
-        <v>4700.441426267205</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q31" t="n">
-        <v>4778.05172241972</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R31" t="n">
-        <v>4778.05172241972</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="S31" t="n">
-        <v>4778.05172241972</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="T31" t="n">
-        <v>4778.05172241972</v>
+        <v>1809.373758622187</v>
       </c>
       <c r="U31" t="n">
-        <v>4778.05172241972</v>
+        <v>1809.373758622187</v>
       </c>
       <c r="V31" t="n">
-        <v>4523.367234213833</v>
+        <v>1554.6892704163</v>
       </c>
       <c r="W31" t="n">
-        <v>4233.950064176873</v>
+        <v>1265.27210037934</v>
       </c>
       <c r="X31" t="n">
-        <v>4005.960513278856</v>
+        <v>1037.282549481322</v>
       </c>
       <c r="Y31" t="n">
-        <v>3785.167934135326</v>
+        <v>1037.282549481322</v>
       </c>
     </row>
     <row r="32">
@@ -6676,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C32" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D32" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E32" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F32" t="n">
-        <v>850.2139837551621</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G32" t="n">
-        <v>435.1415336001586</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H32" t="n">
-        <v>137.5579332089258</v>
+        <v>137.5579332089264</v>
       </c>
       <c r="I32" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J32" t="n">
         <v>284.4401654074198</v>
       </c>
       <c r="K32" t="n">
-        <v>618.2595390972662</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L32" t="n">
-        <v>1482.778354750621</v>
+        <v>1237.706702364129</v>
       </c>
       <c r="M32" t="n">
-        <v>2461.328657580449</v>
+        <v>2216.257005193957</v>
       </c>
       <c r="N32" t="n">
-        <v>3441.080929807095</v>
+        <v>3196.009277420604</v>
       </c>
       <c r="O32" t="n">
-        <v>4075.973927750058</v>
+        <v>4075.973927750059</v>
       </c>
       <c r="P32" t="n">
-        <v>4470.748294107236</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q32" t="n">
-        <v>4719.034655862918</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R32" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S32" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T32" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U32" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V32" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W32" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X32" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y32" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="33">
@@ -6776,7 +6776,7 @@
         <v>114.5683260468565</v>
       </c>
       <c r="I33" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J33" t="n">
         <v>189.2383039390117</v>
@@ -6797,7 +6797,7 @@
         <v>2125.961311426849</v>
       </c>
       <c r="P33" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q33" t="n">
         <v>2594.102460549552</v>
@@ -6834,31 +6834,31 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1120.662598458018</v>
+        <v>491.734309828768</v>
       </c>
       <c r="C34" t="n">
-        <v>951.7264155301116</v>
+        <v>491.734309828768</v>
       </c>
       <c r="D34" t="n">
-        <v>801.6097761177758</v>
+        <v>341.6176704164322</v>
       </c>
       <c r="E34" t="n">
-        <v>653.6966825353827</v>
+        <v>341.6176704164322</v>
       </c>
       <c r="F34" t="n">
-        <v>506.8067350374723</v>
+        <v>194.7277229185219</v>
       </c>
       <c r="G34" t="n">
-        <v>339.1038984121913</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H34" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I34" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J34" t="n">
-        <v>140.6836668953299</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K34" t="n">
         <v>344.6708498442063</v>
@@ -6888,22 +6888,22 @@
         <v>1956.343466104703</v>
       </c>
       <c r="T34" t="n">
-        <v>1956.343466104703</v>
+        <v>1734.576850674229</v>
       </c>
       <c r="U34" t="n">
-        <v>1956.343466104703</v>
+        <v>1445.473983799873</v>
       </c>
       <c r="V34" t="n">
-        <v>1956.343466104703</v>
+        <v>1190.789495593986</v>
       </c>
       <c r="W34" t="n">
-        <v>1751.093193329805</v>
+        <v>901.3723255570251</v>
       </c>
       <c r="X34" t="n">
-        <v>1523.103642431788</v>
+        <v>673.3827746590077</v>
       </c>
       <c r="Y34" t="n">
-        <v>1302.311063288258</v>
+        <v>673.3827746590077</v>
       </c>
     </row>
     <row r="35">
@@ -6925,40 +6925,40 @@
         <v>1261.19988854477</v>
       </c>
       <c r="F35" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551618</v>
       </c>
       <c r="G35" t="n">
-        <v>435.1415336001586</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H35" t="n">
-        <v>137.5579332089258</v>
+        <v>137.5579332089256</v>
       </c>
       <c r="I35" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J35" t="n">
-        <v>451.8458144277728</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K35" t="n">
-        <v>1106.569146563072</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L35" t="n">
-        <v>1557.603359811481</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M35" t="n">
-        <v>2091.135264483405</v>
+        <v>2461.328657580449</v>
       </c>
       <c r="N35" t="n">
-        <v>2637.914081542187</v>
+        <v>3441.080929807095</v>
       </c>
       <c r="O35" t="n">
-        <v>3482.142110232732</v>
+        <v>4075.973927750059</v>
       </c>
       <c r="P35" t="n">
-        <v>4195.497197679678</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q35" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R35" t="n">
         <v>4778.051722419721</v>
@@ -7028,13 +7028,13 @@
         <v>1241.47698845434</v>
       </c>
       <c r="N36" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O36" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P36" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q36" t="n">
         <v>2594.102460549552</v>
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1120.662598458018</v>
+        <v>333.9403347179511</v>
       </c>
       <c r="C37" t="n">
-        <v>951.7264155301116</v>
+        <v>333.9403347179511</v>
       </c>
       <c r="D37" t="n">
-        <v>801.6097761177758</v>
+        <v>333.9403347179511</v>
       </c>
       <c r="E37" t="n">
-        <v>653.6966825353827</v>
+        <v>186.027241135558</v>
       </c>
       <c r="F37" t="n">
-        <v>506.8067350374723</v>
+        <v>186.027241135558</v>
       </c>
       <c r="G37" t="n">
-        <v>339.1038984121913</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H37" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I37" t="n">
         <v>95.56103444839442</v>
@@ -7119,28 +7119,28 @@
         <v>1956.343466104703</v>
       </c>
       <c r="R37" t="n">
-        <v>1866.513008862231</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="S37" t="n">
-        <v>1866.513008862231</v>
+        <v>1764.657581931529</v>
       </c>
       <c r="T37" t="n">
-        <v>1866.513008862231</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U37" t="n">
-        <v>1866.513008862231</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V37" t="n">
-        <v>1611.828520656344</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="W37" t="n">
-        <v>1322.411350619383</v>
+        <v>964.3709295897384</v>
       </c>
       <c r="X37" t="n">
-        <v>1322.411350619383</v>
+        <v>736.381378691721</v>
       </c>
       <c r="Y37" t="n">
-        <v>1302.311063288258</v>
+        <v>515.5887995481909</v>
       </c>
     </row>
     <row r="38">
@@ -7150,73 +7150,73 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2374.216356690174</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C38" t="n">
-        <v>2005.253839749762</v>
+        <v>2005.253839749763</v>
       </c>
       <c r="D38" t="n">
-        <v>1646.988141143012</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E38" t="n">
-        <v>1261.199888544768</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F38" t="n">
-        <v>850.2139837551604</v>
+        <v>850.2139837551613</v>
       </c>
       <c r="G38" t="n">
-        <v>435.1415336001573</v>
+        <v>435.1415336001587</v>
       </c>
       <c r="H38" t="n">
-        <v>137.5579332089258</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I38" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J38" t="n">
-        <v>451.8458144277728</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K38" t="n">
-        <v>785.6651881176192</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L38" t="n">
-        <v>1236.699401366028</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M38" t="n">
-        <v>2215.249704195856</v>
+        <v>2461.328657580449</v>
       </c>
       <c r="N38" t="n">
-        <v>3195.001976422503</v>
+        <v>3441.080929807095</v>
       </c>
       <c r="O38" t="n">
-        <v>3800.722831322499</v>
+        <v>4075.973927750059</v>
       </c>
       <c r="P38" t="n">
-        <v>4195.497197679677</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q38" t="n">
-        <v>4653.975400188665</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R38" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S38" t="n">
-        <v>4667.761053946814</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T38" t="n">
-        <v>4461.783306331035</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U38" t="n">
-        <v>4208.252829604872</v>
+        <v>4208.252829604873</v>
       </c>
       <c r="V38" t="n">
-        <v>3877.189942261301</v>
+        <v>3877.189942261302</v>
       </c>
       <c r="W38" t="n">
-        <v>3524.421286991187</v>
+        <v>3524.421286991188</v>
       </c>
       <c r="X38" t="n">
-        <v>3150.955528730107</v>
+        <v>3150.955528730108</v>
       </c>
       <c r="Y38" t="n">
         <v>2760.816196754296</v>
@@ -7250,7 +7250,7 @@
         <v>114.5683260468565</v>
       </c>
       <c r="I39" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J39" t="n">
         <v>189.2383039390117</v>
@@ -7271,7 +7271,7 @@
         <v>2125.961311426849</v>
       </c>
       <c r="P39" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q39" t="n">
         <v>2594.102460549552</v>
@@ -7308,31 +7308,31 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>95.56103444839441</v>
+        <v>969.6826132878515</v>
       </c>
       <c r="C40" t="n">
-        <v>95.56103444839441</v>
+        <v>800.7464303599446</v>
       </c>
       <c r="D40" t="n">
-        <v>95.56103444839441</v>
+        <v>650.6297909476089</v>
       </c>
       <c r="E40" t="n">
-        <v>95.56103444839441</v>
+        <v>502.7166973652157</v>
       </c>
       <c r="F40" t="n">
-        <v>95.56103444839441</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="G40" t="n">
-        <v>95.56103444839441</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="H40" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I40" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J40" t="n">
-        <v>140.6836668953299</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K40" t="n">
         <v>344.6708498442063</v>
@@ -7356,28 +7356,28 @@
         <v>1956.343466104703</v>
       </c>
       <c r="R40" t="n">
-        <v>1866.513008862231</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="S40" t="n">
-        <v>1674.827124689057</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="T40" t="n">
-        <v>1453.060509258583</v>
+        <v>1734.576850674229</v>
       </c>
       <c r="U40" t="n">
-        <v>1163.957642384227</v>
+        <v>1734.576850674229</v>
       </c>
       <c r="V40" t="n">
-        <v>909.27315417834</v>
+        <v>1479.892362468342</v>
       </c>
       <c r="W40" t="n">
-        <v>619.8559841413794</v>
+        <v>1190.475192431382</v>
       </c>
       <c r="X40" t="n">
-        <v>391.8664332433621</v>
+        <v>1190.475192431382</v>
       </c>
       <c r="Y40" t="n">
-        <v>171.0738540998319</v>
+        <v>969.6826132878515</v>
       </c>
     </row>
     <row r="41">
@@ -7390,22 +7390,22 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C41" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D41" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E41" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F41" t="n">
-        <v>850.2139837551626</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G41" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H41" t="n">
-        <v>137.5579332089264</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I41" t="n">
         <v>95.56103444839442</v>
@@ -7420,13 +7420,13 @@
         <v>1482.778354750621</v>
       </c>
       <c r="M41" t="n">
-        <v>2461.328657580449</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N41" t="n">
-        <v>3441.080929807095</v>
+        <v>3441.080929807096</v>
       </c>
       <c r="O41" t="n">
-        <v>4075.973927750059</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P41" t="n">
         <v>4470.748294107237</v>
@@ -7441,16 +7441,16 @@
         <v>4667.761053946816</v>
       </c>
       <c r="T41" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U41" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V41" t="n">
         <v>3877.189942261304</v>
       </c>
       <c r="W41" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X41" t="n">
         <v>3150.95552873011</v>
@@ -7490,19 +7490,19 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J42" t="n">
-        <v>189.2383039390115</v>
+        <v>189.2383039390116</v>
       </c>
       <c r="K42" t="n">
-        <v>427.5025029193586</v>
+        <v>427.5025029193585</v>
       </c>
       <c r="L42" t="n">
-        <v>794.2006632320239</v>
+        <v>794.2006632320238</v>
       </c>
       <c r="M42" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N42" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O42" t="n">
         <v>2125.961311426849</v>
@@ -7545,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1023.336921276364</v>
+        <v>877.1197344942216</v>
       </c>
       <c r="C43" t="n">
-        <v>854.4007383484569</v>
+        <v>708.1835515663147</v>
       </c>
       <c r="D43" t="n">
-        <v>704.2840989361212</v>
+        <v>558.0669121539789</v>
       </c>
       <c r="E43" t="n">
-        <v>556.371005353728</v>
+        <v>410.1538185715858</v>
       </c>
       <c r="F43" t="n">
-        <v>409.4810578558177</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="G43" t="n">
-        <v>241.7782212305366</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H43" t="n">
         <v>95.56103444839442</v>
@@ -7572,7 +7572,7 @@
         <v>140.68366689533</v>
       </c>
       <c r="K43" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L43" t="n">
         <v>661.2306482927024</v>
@@ -7584,37 +7584,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O43" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P43" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q43" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R43" t="n">
-        <v>1866.513008862231</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S43" t="n">
-        <v>1866.513008862231</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="T43" t="n">
-        <v>1644.746393431757</v>
+        <v>1734.57685067423</v>
       </c>
       <c r="U43" t="n">
-        <v>1355.6435265574</v>
+        <v>1445.473983799873</v>
       </c>
       <c r="V43" t="n">
-        <v>1355.6435265574</v>
+        <v>1190.789495593986</v>
       </c>
       <c r="W43" t="n">
-        <v>1355.6435265574</v>
+        <v>1097.912313637752</v>
       </c>
       <c r="X43" t="n">
-        <v>1355.6435265574</v>
+        <v>1097.912313637752</v>
       </c>
       <c r="Y43" t="n">
-        <v>1204.985386106604</v>
+        <v>877.1197344942216</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C44" t="n">
-        <v>2005.253839749763</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D44" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E44" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F44" t="n">
-        <v>850.2139837551617</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G44" t="n">
-        <v>435.1415336001583</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H44" t="n">
-        <v>137.5579332089255</v>
+        <v>137.5579332089264</v>
       </c>
       <c r="I44" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J44" t="n">
-        <v>451.8458144277728</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K44" t="n">
-        <v>1070.832524924161</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L44" t="n">
-        <v>1521.86673817257</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M44" t="n">
-        <v>2055.398642844494</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N44" t="n">
-        <v>2602.177459903276</v>
+        <v>3441.080929807096</v>
       </c>
       <c r="O44" t="n">
-        <v>3482.142110232731</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P44" t="n">
-        <v>4195.497197679677</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q44" t="n">
-        <v>4653.975400188665</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R44" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S44" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T44" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U44" t="n">
-        <v>4208.252829604873</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V44" t="n">
-        <v>3877.189942261302</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W44" t="n">
-        <v>3524.421286991188</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X44" t="n">
-        <v>3150.955528730108</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y44" t="n">
-        <v>2760.816196754296</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="45">
@@ -7703,13 +7703,13 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973196</v>
       </c>
       <c r="C45" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161926</v>
       </c>
       <c r="D45" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549414</v>
       </c>
       <c r="E45" t="n">
         <v>487.9678785494859</v>
@@ -7724,16 +7724,16 @@
         <v>114.5683260468565</v>
       </c>
       <c r="I45" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J45" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K45" t="n">
-        <v>427.5025029193588</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L45" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M45" t="n">
         <v>1241.47698845434</v>
@@ -7782,34 +7782,34 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>263.2638710736754</v>
+        <v>590.4396319794996</v>
       </c>
       <c r="C46" t="n">
-        <v>263.2638710736754</v>
+        <v>421.5034490515927</v>
       </c>
       <c r="D46" t="n">
-        <v>263.2638710736754</v>
+        <v>390.3640755286979</v>
       </c>
       <c r="E46" t="n">
-        <v>263.2638710736754</v>
+        <v>242.4509819463048</v>
       </c>
       <c r="F46" t="n">
-        <v>263.2638710736754</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G46" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H46" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I46" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J46" t="n">
-        <v>140.6836668953299</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K46" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L46" t="n">
         <v>661.2306482927024</v>
@@ -7821,37 +7821,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O46" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P46" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q46" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R46" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S46" t="n">
-        <v>1948.66560649314</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T46" t="n">
-        <v>1726.898991062666</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="U46" t="n">
-        <v>1437.79612418831</v>
+        <v>1475.554715057174</v>
       </c>
       <c r="V46" t="n">
-        <v>1183.111635982423</v>
+        <v>1220.870226851287</v>
       </c>
       <c r="W46" t="n">
-        <v>893.6944659454626</v>
+        <v>1220.870226851287</v>
       </c>
       <c r="X46" t="n">
-        <v>665.7049150474453</v>
+        <v>992.8806759532695</v>
       </c>
       <c r="Y46" t="n">
-        <v>444.9123359039152</v>
+        <v>772.0880968097393</v>
       </c>
     </row>
   </sheetData>
@@ -8057,10 +8057,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K3" t="n">
-        <v>145.0294169142008</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951776</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8294,7 +8294,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8315,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>90.64146763747073</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8534,7 +8534,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>145.0294169142014</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
@@ -8552,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747169</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8926,10 +8926,10 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
@@ -8941,16 +8941,16 @@
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>294.7853560632951</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9178,7 +9178,7 @@
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>344.7025836476844</v>
+        <v>344.7025836476838</v>
       </c>
       <c r="P17" t="n">
         <v>321.7987081714826</v>
@@ -9266,7 +9266,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9415,7 +9415,7 @@
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>344.7025836476844</v>
+        <v>344.7025836476838</v>
       </c>
       <c r="P20" t="n">
         <v>321.7987081714826</v>
@@ -9503,7 +9503,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9652,7 +9652,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O23" t="n">
-        <v>67.5366377670432</v>
+        <v>133.253057640027</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
@@ -9661,7 +9661,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9713,7 +9713,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>9.059419880941277e-13</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -9874,31 +9874,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>219.3344627260164</v>
       </c>
       <c r="L26" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
         <v>449.5135334928325</v>
       </c>
       <c r="N26" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>133.2530576400261</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10111,28 +10111,28 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N29" t="n">
-        <v>29.61882225792158</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O29" t="n">
-        <v>380.8001812627454</v>
+        <v>133.253057640027</v>
       </c>
       <c r="P29" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -10354,7 +10354,7 @@
         <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>417.6612145504504</v>
+        <v>170.1140909277313</v>
       </c>
       <c r="M32" t="n">
         <v>449.5135334928325</v>
@@ -10363,7 +10363,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O32" t="n">
-        <v>133.2530576400261</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P32" t="n">
         <v>0</v>
@@ -10585,31 +10585,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O35" t="n">
-        <v>344.7025836476853</v>
+        <v>133.253057640027</v>
       </c>
       <c r="P35" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10822,13 +10822,13 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
         <v>449.5135334928325</v>
@@ -10837,16 +10837,16 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O38" t="n">
-        <v>103.7862464855149</v>
+        <v>133.253057640027</v>
       </c>
       <c r="P38" t="n">
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -11074,7 +11074,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O41" t="n">
-        <v>133.253057640027</v>
+        <v>133.2530576400255</v>
       </c>
       <c r="P41" t="n">
         <v>0</v>
@@ -11296,31 +11296,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>288.0478149561031</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O44" t="n">
-        <v>380.8001812627454</v>
+        <v>133.2530576400255</v>
       </c>
       <c r="P44" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -22546,16 +22546,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>124.901792581709</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -22594,16 +22594,16 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -22612,7 +22612,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -22704,19 +22704,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>83.08841053406402</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -22728,7 +22728,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -22749,31 +22749,31 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -22783,16 +22783,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -22801,10 +22801,10 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>15.24960951786665</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -22834,13 +22834,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -22941,16 +22941,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>94.55675138829503</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -22962,10 +22962,10 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -22986,31 +22986,31 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -23023,19 +23023,19 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>219.4376332843451</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -23074,7 +23074,7 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -23083,7 +23083,7 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -23178,28 +23178,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>125.6900249618416</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -23235,19 +23235,19 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -23257,16 +23257,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>34.51339898723688</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>319.0010639722456</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -23278,7 +23278,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23308,19 +23308,19 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -23415,28 +23415,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>105.0742887270135</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,22 +23463,22 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>83.32522828944164</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23497,13 +23497,13 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -23512,10 +23512,10 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>7.346944982533103</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23563,7 +23563,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>307.2767095024431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23652,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -23661,19 +23661,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>113.7908987761685</v>
+        <v>110.0172536104689</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23889,28 +23889,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>15.91190093444115</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,16 +23937,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>76.00632874608679</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -23958,7 +23958,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24138,16 +24138,16 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,16 +24174,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T22" t="n">
-        <v>219.5489492761692</v>
+        <v>125.4638768351527</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -24192,7 +24192,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>83.32522828944238</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24363,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -24372,13 +24372,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>53.0841172186493</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>144.7550149143208</v>
@@ -24414,7 +24414,7 @@
         <v>88.93215267004734</v>
       </c>
       <c r="S25" t="n">
-        <v>183.3889571555947</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24432,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24600,28 +24600,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>113.7908987761692</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,28 +24648,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>239.1104512034317</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24852,10 +24852,10 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>94.35543628911164</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H31" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>96.35242040983812</v>
@@ -24891,7 +24891,7 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T31" t="n">
-        <v>219.5489492761692</v>
+        <v>74.04893886847859</v>
       </c>
       <c r="U31" t="n">
         <v>286.2118382056129</v>
@@ -24906,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -25077,25 +25077,25 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>67.85078667360203</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25128,22 +25128,22 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T34" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>83.32522828944232</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25314,25 +25314,25 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>76.46426363873626</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,28 +25359,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S37" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>198.6853688942807</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25548,25 +25548,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>105.0742887270141</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>53.11776490862715</v>
       </c>
       <c r="G40" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>96.35242040983812</v>
@@ -25596,16 +25596,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25614,7 +25614,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25785,7 +25785,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -25803,10 +25803,10 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I43" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S43" t="n">
         <v>189.7690253314419</v>
@@ -25845,16 +25845,16 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>194.5745881999188</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>69.43309430580581</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -26025,25 +26025,25 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>117.7874932305464</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H46" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I46" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,13 +26070,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S46" t="n">
-        <v>182.1679443159947</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26085,7 +26085,7 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>755971.6307849309</v>
+        <v>1047255.490584253</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>755971.6307849309</v>
+        <v>1047255.490584253</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>755971.6307849309</v>
+        <v>1047255.490584253</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>822662.6452852965</v>
+        <v>822662.6452852961</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>822662.6452852964</v>
+        <v>971925.5427771816</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>977294.0982740738</v>
+        <v>977294.0982740737</v>
       </c>
     </row>
     <row r="8">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>977294.0982740738</v>
+        <v>977294.0982740737</v>
       </c>
     </row>
     <row r="13">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>977294.0982740737</v>
+        <v>977294.0982740738</v>
       </c>
     </row>
     <row r="15">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>318067.8710173334</v>
+        <v>451572.973425356</v>
       </c>
       <c r="C2" t="n">
-        <v>318067.8710173335</v>
+        <v>451572.9734253559</v>
       </c>
       <c r="D2" t="n">
-        <v>318067.8710173334</v>
+        <v>451572.973425356</v>
       </c>
       <c r="E2" t="n">
         <v>375096.8088680127</v>
       </c>
       <c r="F2" t="n">
-        <v>375096.8088680128</v>
+        <v>434648.0783388875</v>
       </c>
       <c r="G2" t="n">
         <v>436789.9655756816</v>
       </c>
       <c r="H2" t="n">
-        <v>436789.9655756817</v>
+        <v>436789.9655756818</v>
       </c>
       <c r="I2" t="n">
-        <v>436789.9655756818</v>
+        <v>436789.9655756816</v>
       </c>
       <c r="J2" t="n">
         <v>436789.9655756815</v>
       </c>
       <c r="K2" t="n">
-        <v>436789.9655756817</v>
+        <v>436789.9655756815</v>
       </c>
       <c r="L2" t="n">
         <v>436789.9655756815</v>
       </c>
       <c r="M2" t="n">
-        <v>436789.9655756817</v>
+        <v>436789.9655756815</v>
       </c>
       <c r="N2" t="n">
-        <v>436789.9655756815</v>
+        <v>436789.9655756816</v>
       </c>
       <c r="O2" t="n">
-        <v>436789.9655756817</v>
+        <v>436789.9655756816</v>
       </c>
       <c r="P2" t="n">
-        <v>436789.9655756817</v>
+        <v>436789.9655756816</v>
       </c>
     </row>
     <row r="3">
@@ -26377,10 +26377,10 @@
         <v>618960.3159503536</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>100428.7464736721</v>
       </c>
       <c r="G3" t="n">
-        <v>99523.40868091468</v>
+        <v>3455.292777867989</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26398,13 +26398,13 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>39153.48277254678</v>
+        <v>39153.48277254669</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>85848.096115386</v>
       </c>
       <c r="O3" t="n">
-        <v>87383.13961898992</v>
+        <v>3033.8021500146</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26417,49 +26417,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>62518.47524617217</v>
+        <v>201064.5059277315</v>
       </c>
       <c r="C4" t="n">
-        <v>62518.47524617216</v>
+        <v>201064.5059277315</v>
       </c>
       <c r="D4" t="n">
-        <v>62518.47524617217</v>
+        <v>201064.5059277315</v>
       </c>
       <c r="E4" t="n">
         <v>4890.851381993015</v>
       </c>
       <c r="F4" t="n">
-        <v>4890.851381993015</v>
+        <v>24389.41657776971</v>
       </c>
       <c r="G4" t="n">
-        <v>25090.72367499383</v>
+        <v>25090.72367499382</v>
       </c>
       <c r="H4" t="n">
-        <v>25090.72367499383</v>
+        <v>25090.72367499381</v>
       </c>
       <c r="I4" t="n">
+        <v>25090.72367499385</v>
+      </c>
+      <c r="J4" t="n">
         <v>25090.72367499382</v>
       </c>
-      <c r="J4" t="n">
-        <v>25090.72367499383</v>
-      </c>
       <c r="K4" t="n">
-        <v>25090.72367499382</v>
+        <v>25090.72367499384</v>
       </c>
       <c r="L4" t="n">
         <v>25090.72367499383</v>
       </c>
       <c r="M4" t="n">
-        <v>25090.72367499383</v>
+        <v>25090.72367499384</v>
       </c>
       <c r="N4" t="n">
+        <v>25090.72367499384</v>
+      </c>
+      <c r="O4" t="n">
         <v>25090.72367499382</v>
       </c>
-      <c r="O4" t="n">
-        <v>25090.72367499384</v>
-      </c>
       <c r="P4" t="n">
-        <v>25090.72367499381</v>
+        <v>25090.72367499382</v>
       </c>
     </row>
     <row r="5">
@@ -26481,19 +26481,19 @@
         <v>74306.3405613933</v>
       </c>
       <c r="F5" t="n">
-        <v>74306.3405613933</v>
+        <v>95617.03413056073</v>
       </c>
       <c r="G5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="H5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="I5" t="n">
         <v>96383.51825371364</v>
       </c>
       <c r="J5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="K5" t="n">
         <v>96383.51825371364</v>
@@ -26508,10 +26508,10 @@
         <v>96383.51825371364</v>
       </c>
       <c r="O5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="P5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-417277.5615067928</v>
+        <v>-422318.4897803295</v>
       </c>
       <c r="C6" t="n">
-        <v>172690.3177077519</v>
+        <v>167649.3894342149</v>
       </c>
       <c r="D6" t="n">
-        <v>172690.3177077517</v>
+        <v>167649.389434215</v>
       </c>
       <c r="E6" t="n">
-        <v>-323060.6990257272</v>
+        <v>-326536.8883237883</v>
       </c>
       <c r="F6" t="n">
-        <v>295899.6169246265</v>
+        <v>213443.5677438637</v>
       </c>
       <c r="G6" t="n">
-        <v>215792.3149660594</v>
+        <v>311188.4759668482</v>
       </c>
       <c r="H6" t="n">
-        <v>315315.7236469742</v>
+        <v>314643.7687447164</v>
       </c>
       <c r="I6" t="n">
-        <v>315315.7236469743</v>
+        <v>314643.7687447164</v>
       </c>
       <c r="J6" t="n">
-        <v>138892.5044543811</v>
+        <v>138220.5495521231</v>
       </c>
       <c r="K6" t="n">
-        <v>315315.7236469742</v>
+        <v>314643.7687447161</v>
       </c>
       <c r="L6" t="n">
-        <v>315315.723646974</v>
+        <v>314643.7687447161</v>
       </c>
       <c r="M6" t="n">
-        <v>276162.2408744275</v>
+        <v>275490.2859721693</v>
       </c>
       <c r="N6" t="n">
-        <v>315315.7236469741</v>
+        <v>228795.6726293302</v>
       </c>
       <c r="O6" t="n">
-        <v>227932.5840279843</v>
+        <v>311609.9665947015</v>
       </c>
       <c r="P6" t="n">
-        <v>315315.7236469743</v>
+        <v>314643.7687447161</v>
       </c>
     </row>
   </sheetData>
@@ -26798,10 +26798,10 @@
         <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="F4" t="n">
-        <v>831.4014554022928</v>
+        <v>1181.906283842546</v>
       </c>
       <c r="G4" t="n">
         <v>1194.51293060493</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>712.0330363762116</v>
+        <v>712.0330363762117</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26998,7 +26998,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -27020,13 +27020,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>157.1141826477373</v>
+        <v>157.1141826477372</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>350.5048284402536</v>
       </c>
       <c r="G4" t="n">
-        <v>363.1114752026373</v>
+        <v>12.60664676238389</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27044,13 +27044,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>157.1141826477375</v>
+        <v>157.1141826477372</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>350.5048284402536</v>
       </c>
       <c r="O4" t="n">
-        <v>363.1114752026375</v>
+        <v>12.60664676238389</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27266,13 +27266,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>157.1141826477373</v>
+        <v>157.1141826477372</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>350.5048284402536</v>
       </c>
       <c r="O4" t="n">
-        <v>363.1114752026373</v>
+        <v>12.60664676238389</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27381,13 +27381,13 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>297.932697354238</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27396,7 +27396,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27432,7 +27432,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -27441,10 +27441,10 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27536,10 +27536,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>107.5829646831822</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27554,13 +27554,13 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27581,31 +27581,31 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27615,10 +27615,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -27633,7 +27633,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27669,7 +27669,7 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>116.7497573142986</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -27678,13 +27678,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27773,7 +27773,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -27788,16 +27788,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>136.7057146380966</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27821,28 +27821,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27867,13 +27867,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>150.598340449332</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27900,25 +27900,25 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28022,19 +28022,19 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>141.9938968421885</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,31 +28055,31 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -31515,13 +31515,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
@@ -31539,22 +31539,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S8" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31594,16 +31594,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I9" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31627,16 +31627,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T9" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,19 +31673,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J10" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31697,13 +31697,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R10" t="n">
         <v>30.62819939701163</v>
@@ -31712,7 +31712,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -32226,43 +32226,43 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H17" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I17" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J17" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K17" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L17" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M17" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N17" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O17" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P17" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q17" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R17" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S17" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T17" t="n">
         <v>19.1778794245112</v>
@@ -32311,40 +32311,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I18" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J18" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K18" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L18" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M18" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N18" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O18" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P18" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q18" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R18" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S18" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T18" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U18" t="n">
         <v>0.1542136840462215</v>
@@ -32384,13 +32384,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H19" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I19" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J19" t="n">
         <v>138.937596729739</v>
@@ -32399,16 +32399,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L19" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M19" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N19" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O19" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P19" t="n">
         <v>237.6785118802169</v>
@@ -32417,16 +32417,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R19" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S19" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T19" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,43 +32463,43 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H20" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I20" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J20" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K20" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L20" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M20" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N20" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O20" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P20" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q20" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R20" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S20" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T20" t="n">
         <v>19.1778794245112</v>
@@ -32548,40 +32548,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I21" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J21" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K21" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L21" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M21" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N21" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O21" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P21" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q21" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R21" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S21" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T21" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U21" t="n">
         <v>0.1542136840462215</v>
@@ -32621,13 +32621,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H22" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I22" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J22" t="n">
         <v>138.937596729739</v>
@@ -32636,16 +32636,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L22" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M22" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N22" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O22" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P22" t="n">
         <v>237.6785118802169</v>
@@ -32654,16 +32654,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R22" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S22" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T22" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32794,7 +32794,7 @@
         <v>378.5123470353157</v>
       </c>
       <c r="L24" t="n">
-        <v>508.9565619138801</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M24" t="n">
         <v>593.9283018233474</v>
@@ -32937,43 +32937,43 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H26" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I26" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J26" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K26" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L26" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M26" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N26" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O26" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P26" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q26" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R26" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S26" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T26" t="n">
         <v>19.1778794245112</v>
@@ -33022,40 +33022,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I27" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J27" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K27" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L27" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M27" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N27" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O27" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P27" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q27" t="n">
-        <v>299.2156706987494</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R27" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S27" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T27" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U27" t="n">
         <v>0.1542136840462215</v>
@@ -33095,13 +33095,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H28" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I28" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J28" t="n">
         <v>138.937596729739</v>
@@ -33110,16 +33110,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L28" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M28" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N28" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O28" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P28" t="n">
         <v>237.6785118802169</v>
@@ -33128,16 +33128,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R28" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S28" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T28" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33277,13 +33277,13 @@
         <v>609.6478166837924</v>
       </c>
       <c r="O30" t="n">
-        <v>557.7086478970255</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P30" t="n">
         <v>447.6103584002926</v>
       </c>
       <c r="Q30" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987494</v>
       </c>
       <c r="R30" t="n">
         <v>145.5365940905541</v>
@@ -33517,10 +33517,10 @@
         <v>557.7086478970249</v>
       </c>
       <c r="P33" t="n">
-        <v>447.6103584002933</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q33" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987494</v>
       </c>
       <c r="R33" t="n">
         <v>145.5365940905541</v>
@@ -33748,7 +33748,7 @@
         <v>593.9283018233474</v>
       </c>
       <c r="N36" t="n">
-        <v>609.6478166837931</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O36" t="n">
         <v>557.7086478970249</v>
@@ -33757,7 +33757,7 @@
         <v>447.6103584002926</v>
       </c>
       <c r="Q36" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987494</v>
       </c>
       <c r="R36" t="n">
         <v>145.5365940905541</v>
@@ -33991,10 +33991,10 @@
         <v>557.7086478970249</v>
       </c>
       <c r="P39" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002933</v>
       </c>
       <c r="Q39" t="n">
-        <v>299.2156706987494</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R39" t="n">
         <v>145.5365940905541</v>
@@ -34122,43 +34122,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H41" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I41" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J41" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K41" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L41" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M41" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N41" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O41" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P41" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q41" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R41" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S41" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T41" t="n">
         <v>19.1778794245112</v>
@@ -34207,40 +34207,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I42" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J42" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K42" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L42" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M42" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N42" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O42" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P42" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q42" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R42" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S42" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T42" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U42" t="n">
         <v>0.1542136840462215</v>
@@ -34280,13 +34280,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H43" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I43" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J43" t="n">
         <v>138.937596729739</v>
@@ -34295,16 +34295,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L43" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M43" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N43" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O43" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P43" t="n">
         <v>237.6785118802169</v>
@@ -34313,16 +34313,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R43" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S43" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T43" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,43 +34359,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H44" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I44" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J44" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K44" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L44" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M44" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N44" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O44" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P44" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q44" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R44" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S44" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T44" t="n">
         <v>19.1778794245112</v>
@@ -34444,40 +34444,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I45" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J45" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K45" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L45" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M45" t="n">
-        <v>593.9283018233481</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N45" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O45" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P45" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q45" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R45" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S45" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T45" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U45" t="n">
         <v>0.1542136840462215</v>
@@ -34517,13 +34517,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H46" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I46" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J46" t="n">
         <v>138.937596729739</v>
@@ -34532,16 +34532,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L46" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M46" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N46" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O46" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P46" t="n">
         <v>237.6785118802169</v>
@@ -34550,16 +34550,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R46" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S46" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T46" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34777,10 +34777,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>138.389756104752</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34798,7 +34798,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730626</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35014,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35035,7 +35035,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
-        <v>54.37527471535575</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35187,10 +35187,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35251,10 +35251,10 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K9" t="n">
-        <v>138.3897561047526</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
         <v>408.7029475713857</v>
@@ -35266,13 +35266,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P9" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535667</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35333,7 +35333,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35348,7 +35348,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35646,10 +35646,10 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K14" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L14" t="n">
         <v>455.5901143923322</v>
@@ -35661,16 +35661,16 @@
         <v>552.3018354129115</v>
       </c>
       <c r="O14" t="n">
-        <v>508.0530008882191</v>
+        <v>802.8383569515142</v>
       </c>
       <c r="P14" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q14" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R14" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35886,25 +35886,25 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K17" t="n">
-        <v>661.3366991265651</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L17" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M17" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N17" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O17" t="n">
-        <v>852.7555845359034</v>
+        <v>852.7555845359029</v>
       </c>
       <c r="P17" t="n">
-        <v>720.5606943908542</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q17" t="n">
-        <v>463.1092954636241</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R17" t="n">
         <v>125.3296184152072</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K18" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L18" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M18" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N18" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O18" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P18" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q18" t="n">
-        <v>159.2338966127271</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,10 +36041,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K19" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L19" t="n">
         <v>319.7573721701981</v>
@@ -36056,13 +36056,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O19" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P19" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q19" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36123,25 +36123,25 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K20" t="n">
-        <v>661.3366991265651</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L20" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M20" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N20" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O20" t="n">
-        <v>852.7555845359034</v>
+        <v>852.7555845359029</v>
       </c>
       <c r="P20" t="n">
-        <v>720.5606943908542</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q20" t="n">
-        <v>463.1092954636241</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R20" t="n">
         <v>125.3296184152072</v>
@@ -36199,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K21" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L21" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M21" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N21" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O21" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P21" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q21" t="n">
-        <v>159.2338966127271</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,10 +36278,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K22" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L22" t="n">
         <v>319.7573721701981</v>
@@ -36293,13 +36293,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O22" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P22" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q22" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36372,7 +36372,7 @@
         <v>989.6487598248955</v>
       </c>
       <c r="O23" t="n">
-        <v>575.5896386552622</v>
+        <v>641.306058528246</v>
       </c>
       <c r="P23" t="n">
         <v>398.7619862193716</v>
@@ -36381,7 +36381,7 @@
         <v>250.7943048037194</v>
       </c>
       <c r="R23" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36442,7 +36442,7 @@
         <v>240.6709080609567</v>
       </c>
       <c r="L24" t="n">
-        <v>370.402182134006</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M24" t="n">
         <v>451.7942679013291</v>
@@ -36594,31 +36594,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>190.7870009687125</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K26" t="n">
-        <v>337.1912865554004</v>
+        <v>556.5257492814169</v>
       </c>
       <c r="L26" t="n">
-        <v>873.2513289427824</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M26" t="n">
-        <v>988.434649323059</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N26" t="n">
-        <v>989.6487598248955</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O26" t="n">
-        <v>641.3060585282451</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P26" t="n">
-        <v>398.7619862193716</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q26" t="n">
-        <v>250.7943048037194</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R26" t="n">
-        <v>59.61319854222472</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36673,28 +36673,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K27" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L27" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M27" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N27" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O27" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P27" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q27" t="n">
-        <v>159.2338966127279</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36752,10 +36752,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K28" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L28" t="n">
         <v>319.7573721701981</v>
@@ -36767,13 +36767,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O28" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P28" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q28" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36831,28 +36831,28 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K29" t="n">
-        <v>661.3366991265651</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L29" t="n">
-        <v>455.5901143923319</v>
+        <v>873.2513289427824</v>
       </c>
       <c r="M29" t="n">
-        <v>538.9211158302265</v>
+        <v>988.434649323059</v>
       </c>
       <c r="N29" t="n">
-        <v>581.9206576708328</v>
+        <v>989.6487598248955</v>
       </c>
       <c r="O29" t="n">
-        <v>888.8531821509644</v>
+        <v>641.306058528246</v>
       </c>
       <c r="P29" t="n">
-        <v>720.5606943908542</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q29" t="n">
-        <v>463.1092954636241</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R29" t="n">
         <v>59.61319854222472</v>
@@ -36925,13 +36925,13 @@
         <v>478.3061046004591</v>
       </c>
       <c r="O30" t="n">
-        <v>415.1124034525811</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P30" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q30" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127279</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37074,7 +37074,7 @@
         <v>337.1912865554004</v>
       </c>
       <c r="L32" t="n">
-        <v>873.2513289427824</v>
+        <v>625.7042053200632</v>
       </c>
       <c r="M32" t="n">
         <v>988.434649323059</v>
@@ -37083,7 +37083,7 @@
         <v>989.6487598248955</v>
       </c>
       <c r="O32" t="n">
-        <v>641.3060585282451</v>
+        <v>888.8531821509644</v>
       </c>
       <c r="P32" t="n">
         <v>398.7619862193716</v>
@@ -37165,10 +37165,10 @@
         <v>415.1124034525805</v>
       </c>
       <c r="P33" t="n">
-        <v>313.6359509859631</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q33" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127279</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37305,31 +37305,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K35" t="n">
-        <v>661.3366991265651</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L35" t="n">
-        <v>455.5901143923319</v>
+        <v>873.2513289427824</v>
       </c>
       <c r="M35" t="n">
-        <v>538.9211158302265</v>
+        <v>988.434649323059</v>
       </c>
       <c r="N35" t="n">
-        <v>552.3018354129113</v>
+        <v>989.6487598248955</v>
       </c>
       <c r="O35" t="n">
-        <v>852.7555845359043</v>
+        <v>641.306058528246</v>
       </c>
       <c r="P35" t="n">
-        <v>720.5606943908542</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q35" t="n">
-        <v>463.1092954636241</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R35" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37396,7 +37396,7 @@
         <v>451.7942679013291</v>
       </c>
       <c r="N36" t="n">
-        <v>478.3061046004598</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O36" t="n">
         <v>415.1124034525805</v>
@@ -37405,7 +37405,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q36" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127279</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37542,13 +37542,13 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K38" t="n">
         <v>337.1912865554004</v>
       </c>
       <c r="L38" t="n">
-        <v>455.5901143923319</v>
+        <v>873.2513289427824</v>
       </c>
       <c r="M38" t="n">
         <v>988.434649323059</v>
@@ -37557,16 +37557,16 @@
         <v>989.6487598248955</v>
       </c>
       <c r="O38" t="n">
-        <v>611.8392473737339</v>
+        <v>641.306058528246</v>
       </c>
       <c r="P38" t="n">
         <v>398.7619862193716</v>
       </c>
       <c r="Q38" t="n">
-        <v>463.1092954636241</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R38" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37639,10 +37639,10 @@
         <v>415.1124034525805</v>
       </c>
       <c r="P39" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859631</v>
       </c>
       <c r="Q39" t="n">
-        <v>159.2338966127279</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37779,31 +37779,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K41" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L41" t="n">
-        <v>873.2513289427824</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M41" t="n">
-        <v>988.434649323059</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N41" t="n">
-        <v>989.6487598248955</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O41" t="n">
-        <v>641.306058528246</v>
+        <v>641.3060585282446</v>
       </c>
       <c r="P41" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q41" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R41" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,28 +37858,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K42" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L42" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M42" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N42" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O42" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P42" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q42" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37937,10 +37937,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K43" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L43" t="n">
         <v>319.7573721701981</v>
@@ -37952,13 +37952,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O43" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P43" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q43" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38016,31 +38016,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K44" t="n">
-        <v>625.2391015115035</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L44" t="n">
-        <v>455.5901143923319</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M44" t="n">
-        <v>538.9211158302265</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N44" t="n">
-        <v>552.3018354129113</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O44" t="n">
-        <v>888.8531821509644</v>
+        <v>641.3060585282446</v>
       </c>
       <c r="P44" t="n">
-        <v>720.5606943908542</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q44" t="n">
-        <v>463.1092954636241</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R44" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38095,28 +38095,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K45" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L45" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M45" t="n">
-        <v>451.7942679013298</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N45" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O45" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P45" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q45" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38174,10 +38174,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K46" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L46" t="n">
         <v>319.7573721701981</v>
@@ -38189,13 +38189,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O46" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P46" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q46" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
